--- a/zjmzxfzhl/zjmzxfzhl-codegenerator/db/数据库设计【SYS_系统管理】.xlsx
+++ b/zjmzxfzhl/zjmzxfzhl-codegenerator/db/数据库设计【SYS_系统管理】.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="362">
   <si>
     <t>中文表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,6 +1233,104 @@
   </si>
   <si>
     <t>0-默认 1立即执行 2执行一次 3放弃执行</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SYS_OAUTH_CLIENT_DETAILS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>RESOURCE_IDS</t>
+  </si>
+  <si>
+    <t>CLIENT_SECRET</t>
+  </si>
+  <si>
+    <t>SCOPE</t>
+  </si>
+  <si>
+    <t>AUTHORIZED_GRANT_TYPES</t>
+  </si>
+  <si>
+    <t>WEB_SERVER_REDIRECT_URI</t>
+  </si>
+  <si>
+    <t>AUTHORITIES</t>
+  </si>
+  <si>
+    <t>ACCESS_TOKEN_VALIDITY</t>
+  </si>
+  <si>
+    <t>REFRESH_TOKEN_VALIDITY</t>
+  </si>
+  <si>
+    <t>ADDITIONAL_INFORMATION</t>
+  </si>
+  <si>
+    <t>AUTOAPPROVE</t>
+  </si>
+  <si>
+    <t>应用标识</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>授权方式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>(authorization_code,password,refresh_token,client_credentials)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">回调地址 </t>
+  </si>
+  <si>
+    <t>权限</t>
+  </si>
+  <si>
+    <t>扩展信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否自动授权</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>true-是 false-否</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>trueOrFalse</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS17_应用客户端表</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源限定串</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用密钥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>token有效期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh有效期</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1343,7 +1441,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1415,6 +1513,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1887,9 +1991,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M249"/>
+  <dimension ref="A1:M268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A231" workbookViewId="0">
+      <selection activeCell="A235" sqref="A235"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="12"/>
   <cols>
@@ -1977,7 +2083,7 @@
       <c r="J2" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M2" s="61" t="s">
+      <c r="M2" s="63" t="s">
         <v>226</v>
       </c>
     </row>
@@ -2009,7 +2115,7 @@
       <c r="J3" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M3" s="61"/>
+      <c r="M3" s="63"/>
     </row>
     <row r="4" spans="1:13">
       <c r="B4" s="2">
@@ -2036,7 +2142,7 @@
       <c r="J4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="61"/>
+      <c r="M4" s="63"/>
     </row>
     <row r="5" spans="1:13">
       <c r="B5" s="2">
@@ -2063,7 +2169,7 @@
       <c r="J5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M5" s="61"/>
+      <c r="M5" s="63"/>
     </row>
     <row r="6" spans="1:13">
       <c r="B6" s="2">
@@ -2090,7 +2196,7 @@
       <c r="J6" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M6" s="61"/>
+      <c r="M6" s="63"/>
     </row>
     <row r="7" spans="1:13" s="42" customFormat="1">
       <c r="B7" s="42">
@@ -2311,7 +2417,7 @@
       <c r="J14" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="61" t="s">
+      <c r="M14" s="63" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2343,7 +2449,7 @@
       <c r="J15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M15" s="61"/>
+      <c r="M15" s="63"/>
     </row>
     <row r="16" spans="1:13">
       <c r="B16" s="42">
@@ -2370,7 +2476,7 @@
       <c r="J16" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M16" s="61"/>
+      <c r="M16" s="63"/>
     </row>
     <row r="17" spans="1:13">
       <c r="B17" s="42">
@@ -2397,7 +2503,7 @@
       <c r="J17" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M17" s="61"/>
+      <c r="M17" s="63"/>
     </row>
     <row r="18" spans="1:13" s="42" customFormat="1">
       <c r="B18" s="42">
@@ -2618,7 +2724,7 @@
       <c r="J25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M25" s="61" t="s">
+      <c r="M25" s="63" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2651,7 +2757,7 @@
         <v>88</v>
       </c>
       <c r="L26" s="40"/>
-      <c r="M26" s="61"/>
+      <c r="M26" s="63"/>
     </row>
     <row r="27" spans="1:13">
       <c r="B27" s="3">
@@ -2679,7 +2785,7 @@
         <v>87</v>
       </c>
       <c r="L27" s="40"/>
-      <c r="M27" s="61"/>
+      <c r="M27" s="63"/>
     </row>
     <row r="28" spans="1:13">
       <c r="B28" s="3">
@@ -2706,7 +2812,7 @@
       <c r="J28" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M28" s="61"/>
+      <c r="M28" s="63"/>
     </row>
     <row r="29" spans="1:13" s="7" customFormat="1">
       <c r="B29" s="3">
@@ -2733,7 +2839,7 @@
       <c r="J29" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="M29" s="61"/>
+      <c r="M29" s="63"/>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="3">
@@ -2760,7 +2866,7 @@
       <c r="J30" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M30" s="61"/>
+      <c r="M30" s="63"/>
     </row>
     <row r="31" spans="1:13">
       <c r="B31" s="3">
@@ -2787,7 +2893,7 @@
       <c r="J31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="M31" s="61"/>
+      <c r="M31" s="63"/>
     </row>
     <row r="32" spans="1:13" s="28" customFormat="1">
       <c r="B32" s="3">
@@ -8421,421 +8527,941 @@
         <v>77</v>
       </c>
     </row>
-    <row r="235" spans="1:13" s="41" customFormat="1">
+    <row r="235" spans="1:13" s="61" customFormat="1">
       <c r="A235" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B235" s="61">
+        <v>1</v>
+      </c>
+      <c r="C235" s="61" t="s">
+        <v>346</v>
+      </c>
+      <c r="D235" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="E235" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F235" s="61">
+        <v>256</v>
+      </c>
+      <c r="H235" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I235" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J235" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="236" spans="1:13" s="61" customFormat="1">
+      <c r="A236" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B236" s="61">
+        <v>2</v>
+      </c>
+      <c r="C236" s="62" t="s">
+        <v>358</v>
+      </c>
+      <c r="D236" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="E236" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F236" s="61">
+        <v>256</v>
+      </c>
+      <c r="H236" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I236" s="62" t="s">
+        <v>87</v>
+      </c>
+      <c r="J236" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="237" spans="1:13" s="61" customFormat="1">
+      <c r="B237" s="61">
+        <v>3</v>
+      </c>
+      <c r="C237" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="D237" s="61" t="s">
+        <v>337</v>
+      </c>
+      <c r="E237" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F237" s="61">
+        <v>256</v>
+      </c>
+      <c r="H237" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="I237" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J237" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="238" spans="1:13" s="61" customFormat="1">
+      <c r="B238" s="61">
+        <v>4</v>
+      </c>
+      <c r="C238" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="D238" s="61" t="s">
+        <v>338</v>
+      </c>
+      <c r="E238" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F238" s="61">
+        <v>256</v>
+      </c>
+      <c r="H238" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="I238" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J238" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:13" s="61" customFormat="1" ht="24">
+      <c r="B239" s="61">
+        <v>5</v>
+      </c>
+      <c r="C239" s="61" t="s">
+        <v>348</v>
+      </c>
+      <c r="D239" s="61" t="s">
+        <v>339</v>
+      </c>
+      <c r="E239" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F239" s="61">
+        <v>256</v>
+      </c>
+      <c r="H239" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I239" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J239" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L239" s="61" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="240" spans="1:13" s="61" customFormat="1">
+      <c r="B240" s="61">
+        <v>6</v>
+      </c>
+      <c r="C240" s="61" t="s">
+        <v>350</v>
+      </c>
+      <c r="D240" s="61" t="s">
+        <v>340</v>
+      </c>
+      <c r="E240" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F240" s="61">
+        <v>256</v>
+      </c>
+      <c r="H240" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I240" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J240" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="241" spans="1:13" s="61" customFormat="1">
+      <c r="B241" s="61">
+        <v>7</v>
+      </c>
+      <c r="C241" s="61" t="s">
+        <v>351</v>
+      </c>
+      <c r="D241" s="61" t="s">
+        <v>341</v>
+      </c>
+      <c r="E241" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F241" s="61">
+        <v>256</v>
+      </c>
+      <c r="H241" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I241" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J241" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="242" spans="1:13" s="61" customFormat="1">
+      <c r="B242" s="61">
+        <v>12</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D242" s="61" t="s">
+        <v>342</v>
+      </c>
+      <c r="E242" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F242" s="61">
+        <v>9</v>
+      </c>
+      <c r="H242" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I242" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J242" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="243" spans="1:13" s="61" customFormat="1">
+      <c r="B243" s="61">
+        <v>12</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="D243" s="61" t="s">
+        <v>343</v>
+      </c>
+      <c r="E243" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="F243" s="61">
+        <v>9</v>
+      </c>
+      <c r="H243" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I243" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J243" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="244" spans="1:13" s="61" customFormat="1">
+      <c r="B244" s="61">
+        <v>10</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D244" s="61" t="s">
+        <v>344</v>
+      </c>
+      <c r="E244" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F244" s="61">
+        <v>4096</v>
+      </c>
+      <c r="H244" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I244" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J244" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="245" spans="1:13" s="61" customFormat="1">
+      <c r="B245" s="61">
+        <v>11</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D245" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E245" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F245" s="61">
+        <v>256</v>
+      </c>
+      <c r="H245" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I245" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J245" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="K245" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="246" spans="1:13" s="61" customFormat="1">
+      <c r="B246" s="61">
+        <v>12</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="D246" s="61" t="s">
+        <v>304</v>
+      </c>
+      <c r="E246" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="F246" s="61">
+        <v>1</v>
+      </c>
+      <c r="H246" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I246" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="J246" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="K246" s="61" t="s">
+        <v>318</v>
+      </c>
+      <c r="L246" s="61" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="247" spans="1:13" s="61" customFormat="1">
+      <c r="B247" s="61">
+        <v>10</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D247" s="61" t="s">
+        <v>268</v>
+      </c>
+      <c r="E247" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F247" s="61">
+        <v>32</v>
+      </c>
+      <c r="H247" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I247" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J247" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="248" spans="1:13" s="61" customFormat="1">
+      <c r="B248" s="61">
+        <v>11</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E248" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H248" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I248" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J248" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L248" s="3"/>
+    </row>
+    <row r="249" spans="1:13" s="61" customFormat="1">
+      <c r="B249" s="61">
+        <v>12</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="D249" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="E249" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H249" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I249" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J249" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="250" spans="1:13" s="61" customFormat="1">
+      <c r="B250" s="61">
+        <v>13</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D250" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="E250" s="61" t="s">
+        <v>21</v>
+      </c>
+      <c r="F250" s="61">
+        <v>32</v>
+      </c>
+      <c r="H250" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I250" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J250" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="251" spans="1:13" s="61" customFormat="1">
+      <c r="B251" s="61">
+        <v>14</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D251" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E251" s="61" t="s">
+        <v>237</v>
+      </c>
+      <c r="H251" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I251" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J251" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="L251" s="3"/>
+    </row>
+    <row r="252" spans="1:13" s="61" customFormat="1">
+      <c r="B252" s="61">
+        <v>15</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D252" s="61" t="s">
+        <v>273</v>
+      </c>
+      <c r="E252" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H252" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="I252" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="J252" s="61" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="253" spans="1:13" s="61" customFormat="1" ht="24">
+      <c r="A253" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G253" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H253" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I253" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K253" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L253" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M253" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="254" spans="1:13" s="41" customFormat="1">
+      <c r="A254" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="B235" s="3">
+      <c r="B254" s="3">
         <v>1</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C254" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D254" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E235" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F235" s="41">
+      <c r="E254" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F254" s="41">
         <v>32</v>
       </c>
-      <c r="H235" s="41" t="s">
+      <c r="H254" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="I235" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="J235" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="L235" s="3" t="s">
+      <c r="I254" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J254" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="L254" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="236" spans="1:13" s="41" customFormat="1">
-      <c r="A236" s="3" t="s">
+    <row r="255" spans="1:13" s="41" customFormat="1">
+      <c r="A255" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="B236" s="3">
+      <c r="B255" s="3">
         <v>2</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C255" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D255" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E236" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F236" s="41">
+      <c r="E255" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F255" s="41">
         <v>100</v>
       </c>
-      <c r="H236" s="41" t="s">
+      <c r="H255" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I236" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J236" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L236" s="3"/>
-    </row>
-    <row r="237" spans="1:13" s="41" customFormat="1">
-      <c r="B237" s="3">
+      <c r="I255" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J255" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L255" s="3"/>
+    </row>
+    <row r="256" spans="1:13" s="41" customFormat="1">
+      <c r="B256" s="3">
         <v>3</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C256" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D256" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="E237" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F237" s="41">
+      <c r="E256" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F256" s="41">
         <v>20</v>
       </c>
-      <c r="H237" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I237" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J237" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L237" s="3"/>
-    </row>
-    <row r="238" spans="1:13" s="41" customFormat="1">
-      <c r="B238" s="3">
+      <c r="H256" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I256" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J256" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L256" s="3"/>
+    </row>
+    <row r="257" spans="1:13" s="41" customFormat="1">
+      <c r="B257" s="3">
         <v>4</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C257" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D257" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="E238" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F238" s="41">
+      <c r="E257" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F257" s="41">
         <v>100</v>
       </c>
-      <c r="H238" s="41" t="s">
+      <c r="H257" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="I238" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J238" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L238" s="3"/>
-    </row>
-    <row r="239" spans="1:13" s="44" customFormat="1">
-      <c r="B239" s="3">
+      <c r="I257" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J257" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L257" s="3"/>
+    </row>
+    <row r="258" spans="1:13" s="44" customFormat="1">
+      <c r="B258" s="3">
         <v>3</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C258" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D258" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="E239" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="F239" s="44">
+      <c r="E258" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="F258" s="44">
         <v>8</v>
       </c>
-      <c r="H239" s="44" t="s">
-        <v>86</v>
-      </c>
-      <c r="I239" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J239" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L239" s="3"/>
-    </row>
-    <row r="240" spans="1:13" s="41" customFormat="1">
-      <c r="B240" s="3">
+      <c r="H258" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I258" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J258" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L258" s="3"/>
+    </row>
+    <row r="259" spans="1:13" s="41" customFormat="1">
+      <c r="B259" s="3">
         <v>5</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C259" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D259" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="E240" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F240" s="41">
+      <c r="E259" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F259" s="41">
         <v>1</v>
       </c>
-      <c r="H240" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I240" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J240" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="K240" s="41" t="s">
+      <c r="H259" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I259" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J259" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="K259" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="L240" s="3"/>
-    </row>
-    <row r="241" spans="1:13" s="41" customFormat="1">
-      <c r="B241" s="3">
+      <c r="L259" s="3"/>
+    </row>
+    <row r="260" spans="1:13" s="41" customFormat="1">
+      <c r="B260" s="3">
         <v>6</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C260" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D260" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="E241" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F241" s="41">
+      <c r="E260" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F260" s="41">
         <v>20</v>
       </c>
-      <c r="H241" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I241" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J241" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L241" s="3"/>
-    </row>
-    <row r="242" spans="1:13" s="41" customFormat="1">
-      <c r="B242" s="3">
+      <c r="H260" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I260" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J260" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L260" s="3"/>
+    </row>
+    <row r="261" spans="1:13" s="41" customFormat="1">
+      <c r="B261" s="3">
         <v>7</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C261" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D261" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="E242" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F242" s="41">
+      <c r="E261" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F261" s="41">
         <v>100</v>
       </c>
-      <c r="H242" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I242" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J242" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L242" s="3"/>
-    </row>
-    <row r="243" spans="1:13" s="41" customFormat="1">
-      <c r="B243" s="3">
+      <c r="H261" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I261" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J261" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L261" s="3"/>
+    </row>
+    <row r="262" spans="1:13" s="41" customFormat="1">
+      <c r="B262" s="3">
         <v>8</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C262" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D262" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="E243" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F243" s="41">
+      <c r="E262" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F262" s="41">
         <v>32</v>
       </c>
-      <c r="H243" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I243" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J243" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L243" s="3"/>
-    </row>
-    <row r="244" spans="1:13" s="41" customFormat="1">
-      <c r="B244" s="3">
+      <c r="H262" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I262" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J262" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L262" s="3"/>
+    </row>
+    <row r="263" spans="1:13" s="41" customFormat="1">
+      <c r="B263" s="3">
         <v>9</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C263" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D263" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="E244" s="41" t="s">
+      <c r="E263" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="H244" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I244" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J244" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L244" s="3"/>
-    </row>
-    <row r="245" spans="1:13" s="41" customFormat="1">
-      <c r="B245" s="3">
+      <c r="H263" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I263" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J263" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L263" s="3"/>
+    </row>
+    <row r="264" spans="1:13" s="41" customFormat="1">
+      <c r="B264" s="3">
         <v>10</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C264" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D264" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="E245" s="41" t="s">
+      <c r="E264" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H245" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I245" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J245" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L245" s="3"/>
-    </row>
-    <row r="246" spans="1:13" s="41" customFormat="1">
-      <c r="B246" s="3">
+      <c r="H264" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I264" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J264" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L264" s="3"/>
+    </row>
+    <row r="265" spans="1:13" s="41" customFormat="1">
+      <c r="B265" s="3">
         <v>11</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C265" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D265" s="3" t="s">
         <v>240</v>
       </c>
-      <c r="E246" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="F246" s="41">
+      <c r="E265" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F265" s="41">
         <v>32</v>
       </c>
-      <c r="H246" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I246" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J246" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L246" s="3"/>
-    </row>
-    <row r="247" spans="1:13" s="41" customFormat="1">
-      <c r="B247" s="3">
+      <c r="H265" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I265" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J265" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L265" s="3"/>
+    </row>
+    <row r="266" spans="1:13" s="41" customFormat="1">
+      <c r="B266" s="3">
         <v>12</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C266" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D266" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="E247" s="41" t="s">
+      <c r="E266" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="H247" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I247" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J247" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L247" s="3"/>
-    </row>
-    <row r="248" spans="1:13" s="41" customFormat="1">
-      <c r="B248" s="3">
+      <c r="H266" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I266" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J266" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L266" s="3"/>
+    </row>
+    <row r="267" spans="1:13" s="41" customFormat="1">
+      <c r="B267" s="3">
         <v>13</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C267" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D267" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="E248" s="41" t="s">
+      <c r="E267" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="H248" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="I248" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="J248" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="L248" s="3"/>
-    </row>
-    <row r="249" spans="1:13" s="60" customFormat="1" ht="24">
-      <c r="A249" s="1" t="s">
+      <c r="H267" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I267" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="J267" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="L267" s="3"/>
+    </row>
+    <row r="268" spans="1:13" s="60" customFormat="1" ht="24">
+      <c r="A268" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B249" s="1" t="s">
+      <c r="B268" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="C268" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D249" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E249" s="1" t="s">
+      <c r="E268" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F268" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="G268" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H249" s="1" t="s">
+      <c r="H268" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I249" s="1" t="s">
+      <c r="I268" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J249" s="1" t="s">
+      <c r="J268" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K249" s="1" t="s">
+      <c r="K268" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="L249" s="1" t="s">
+      <c r="L268" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="M249" s="1" t="s">
+      <c r="M268" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -8847,13 +9473,13 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H193:H201 H203:H217 H1:H60 H219:H233 H132:H150 H75:H89 H152:H160 H182:H191 H62:H73 H91:H100 H102:H130 H162:H180 H235:H248 H250:H1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H254:H267 H269:H1048576 H193:H201 H162:H180 H102:H130 H91:H100 H62:H73 H182:H191 H152:H160 H75:H89 H132:H150 H219:H233 H1:H60 H203:H217 H235:H252">
       <formula1>"UUID主键,数据库生成主键,前台输入主键,不空,可空"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I193:J201 I219:J233 I1:J60 I203:J217 I62:J73 I75:J89 I102:J130 I132:J150 I152:J160 I182:J191 I91:J100 I162:J180 I235:J248 I250:J1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I254:J267 I269:J1048576 I193:J201 I162:J180 I91:J100 I182:J191 I152:J160 I132:J150 I102:J130 I75:J89 I62:J73 I203:J217 I1:J60 I219:J233 I235:J252">
       <formula1>"是,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E193:E201 E219:E233 E62:E73 E203:E217 E1:E60 E75:E89 E102:E130 E152:E160 E182:E191 E132:E150 E91:E100 E162:E180 E235:E248 E250:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E254:E267 E269:E1048576 E193:E201 E162:E180 E91:E100 E132:E150 E182:E191 E152:E160 E102:E130 E75:E89 E1:E60 E203:E217 E62:E73 E219:E233 E235:E252">
       <formula1>"字符型,浮点型,日期型,时间型,整数型,大文本,大文件"</formula1>
     </dataValidation>
   </dataValidations>
